--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sertad1-Ar.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sertad1-Ar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.75986366666667</v>
+        <v>10.76654833333333</v>
       </c>
       <c r="H2">
-        <v>44.279591</v>
+        <v>32.299645</v>
       </c>
       <c r="I2">
-        <v>0.2069066005118911</v>
+        <v>0.1686652623327698</v>
       </c>
       <c r="J2">
-        <v>0.2199725985531551</v>
+        <v>0.175051555824113</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7727323333333332</v>
+        <v>0.9764603333333333</v>
       </c>
       <c r="N2">
-        <v>2.318197</v>
+        <v>2.929381</v>
       </c>
       <c r="O2">
-        <v>0.08417634149364144</v>
+        <v>0.09919147117119548</v>
       </c>
       <c r="P2">
-        <v>0.09406687683971243</v>
+        <v>0.1117716869728403</v>
       </c>
       <c r="Q2">
-        <v>11.40542389082522</v>
+        <v>10.51310737441611</v>
       </c>
       <c r="R2">
-        <v>102.648815017427</v>
+        <v>94.61796636974499</v>
       </c>
       <c r="S2">
-        <v>0.01741664066197739</v>
+        <v>0.01673015550626306</v>
       </c>
       <c r="T2">
-        <v>0.02069213533621114</v>
+        <v>0.01956580770168144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.75986366666667</v>
+        <v>10.76654833333333</v>
       </c>
       <c r="H3">
-        <v>44.279591</v>
+        <v>32.299645</v>
       </c>
       <c r="I3">
-        <v>0.2069066005118911</v>
+        <v>0.1686652623327698</v>
       </c>
       <c r="J3">
-        <v>0.2199725985531551</v>
+        <v>0.175051555824113</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.534676</v>
       </c>
       <c r="O3">
-        <v>0.6003926902945337</v>
+        <v>0.5598789770873293</v>
       </c>
       <c r="P3">
-        <v>0.6709375134540114</v>
+        <v>0.6308870816289637</v>
       </c>
       <c r="Q3">
-        <v>81.3498545108351</v>
+        <v>59.34046277666888</v>
       </c>
       <c r="R3">
-        <v>732.1486905975158</v>
+        <v>534.0641649900199</v>
       </c>
       <c r="S3">
-        <v>0.1242252105210306</v>
+        <v>0.09443213454503721</v>
       </c>
       <c r="T3">
-        <v>0.1475878683012713</v>
+        <v>0.1104377651884843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.75986366666667</v>
+        <v>10.76654833333333</v>
       </c>
       <c r="H4">
-        <v>44.279591</v>
+        <v>32.299645</v>
       </c>
       <c r="I4">
-        <v>0.2069066005118911</v>
+        <v>0.1686652623327698</v>
       </c>
       <c r="J4">
-        <v>0.2199725985531551</v>
+        <v>0.175051555824113</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.895632</v>
+        <v>0.032202</v>
       </c>
       <c r="N4">
-        <v>5.791264</v>
+        <v>0.096606</v>
       </c>
       <c r="O4">
-        <v>0.3154309682118249</v>
+        <v>0.00327116590978248</v>
       </c>
       <c r="P4">
-        <v>0.2349956097062763</v>
+        <v>0.003686040017224872</v>
       </c>
       <c r="Q4">
-        <v>42.73913354883733</v>
+        <v>0.34670438943</v>
       </c>
       <c r="R4">
-        <v>256.434801293024</v>
+        <v>3.12033950487</v>
       </c>
       <c r="S4">
-        <v>0.06526474932888307</v>
+        <v>0.0005517320563074757</v>
       </c>
       <c r="T4">
-        <v>0.05169259491567262</v>
+        <v>0.000645247039845154</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.98286</v>
+        <v>10.76654833333333</v>
       </c>
       <c r="H5">
-        <v>32.94858</v>
+        <v>32.299645</v>
       </c>
       <c r="I5">
-        <v>0.1539598385065049</v>
+        <v>0.1686652623327698</v>
       </c>
       <c r="J5">
-        <v>0.1636822878792289</v>
+        <v>0.175051555824113</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7727323333333332</v>
+        <v>3.3239755</v>
       </c>
       <c r="N5">
-        <v>2.318197</v>
+        <v>6.647951</v>
       </c>
       <c r="O5">
-        <v>0.08417634149364144</v>
+        <v>0.3376583858316928</v>
       </c>
       <c r="P5">
-        <v>0.09406687683971243</v>
+        <v>0.2536551913809712</v>
       </c>
       <c r="Q5">
-        <v>8.486811034473332</v>
+        <v>35.78774287956583</v>
       </c>
       <c r="R5">
-        <v>76.38129931025999</v>
+        <v>214.726457277395</v>
       </c>
       <c r="S5">
-        <v>0.01295977594242944</v>
+        <v>0.05695124022516208</v>
       </c>
       <c r="T5">
-        <v>0.01539708161477778</v>
+        <v>0.04440273589410215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>32.94858</v>
       </c>
       <c r="I6">
-        <v>0.1539598385065049</v>
+        <v>0.1720539309082887</v>
       </c>
       <c r="J6">
-        <v>0.1636822878792289</v>
+        <v>0.1785685319821705</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.511558666666666</v>
+        <v>0.9764603333333333</v>
       </c>
       <c r="N6">
-        <v>16.534676</v>
+        <v>2.929381</v>
       </c>
       <c r="O6">
-        <v>0.6003926902945337</v>
+        <v>0.09919147117119548</v>
       </c>
       <c r="P6">
-        <v>0.6709375134540114</v>
+        <v>0.1117716869728403</v>
       </c>
       <c r="Q6">
-        <v>60.53267721778666</v>
+        <v>10.72432713655333</v>
       </c>
       <c r="R6">
-        <v>544.7940949600799</v>
+        <v>96.51894422897999</v>
       </c>
       <c r="S6">
-        <v>0.09243636163823239</v>
+        <v>0.01706628252758038</v>
       </c>
       <c r="T6">
-        <v>0.1098205872261535</v>
+        <v>0.01995890605991078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,55 +856,55 @@
         <v>32.94858</v>
       </c>
       <c r="I7">
-        <v>0.1539598385065049</v>
+        <v>0.1720539309082887</v>
       </c>
       <c r="J7">
-        <v>0.1636822878792289</v>
+        <v>0.1785685319821705</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.895632</v>
+        <v>5.511558666666666</v>
       </c>
       <c r="N7">
-        <v>5.791264</v>
+        <v>16.534676</v>
       </c>
       <c r="O7">
-        <v>0.3154309682118249</v>
+        <v>0.5598789770873293</v>
       </c>
       <c r="P7">
-        <v>0.2349956097062763</v>
+        <v>0.6308870816289637</v>
       </c>
       <c r="Q7">
-        <v>31.80232086752</v>
+        <v>60.53267721778666</v>
       </c>
       <c r="R7">
-        <v>190.81392520512</v>
+        <v>544.7940949600799</v>
       </c>
       <c r="S7">
-        <v>0.04856370092584303</v>
+        <v>0.09632937884078671</v>
       </c>
       <c r="T7">
-        <v>0.03846461903829763</v>
+        <v>0.1126565800129998</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.43916166666667</v>
+        <v>10.98286</v>
       </c>
       <c r="H8">
-        <v>46.317485</v>
+        <v>32.94858</v>
       </c>
       <c r="I8">
-        <v>0.2164291301970361</v>
+        <v>0.1720539309082887</v>
       </c>
       <c r="J8">
-        <v>0.2300964689104013</v>
+        <v>0.1785685319821705</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.7727323333333332</v>
+        <v>0.032202</v>
       </c>
       <c r="N8">
-        <v>2.318197</v>
+        <v>0.096606</v>
       </c>
       <c r="O8">
-        <v>0.08417634149364144</v>
+        <v>0.00327116590978248</v>
       </c>
       <c r="P8">
-        <v>0.09406687683971243</v>
+        <v>0.003686040017224872</v>
       </c>
       <c r="Q8">
-        <v>11.93033941939389</v>
+        <v>0.35367005772</v>
       </c>
       <c r="R8">
-        <v>107.373054774545</v>
+        <v>3.18303051948</v>
       </c>
       <c r="S8">
-        <v>0.0182182123726375</v>
+        <v>0.0005628169534312642</v>
       </c>
       <c r="T8">
-        <v>0.02164445620224744</v>
+        <v>0.0006582107547033798</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.43916166666667</v>
+        <v>10.98286</v>
       </c>
       <c r="H9">
-        <v>46.317485</v>
+        <v>32.94858</v>
       </c>
       <c r="I9">
-        <v>0.2164291301970361</v>
+        <v>0.1720539309082887</v>
       </c>
       <c r="J9">
-        <v>0.2300964689104013</v>
+        <v>0.1785685319821705</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.511558666666666</v>
+        <v>3.3239755</v>
       </c>
       <c r="N9">
-        <v>16.534676</v>
+        <v>6.647951</v>
       </c>
       <c r="O9">
-        <v>0.6003926902945337</v>
+        <v>0.3376583858316928</v>
       </c>
       <c r="P9">
-        <v>0.6709375134540114</v>
+        <v>0.2536551913809712</v>
       </c>
       <c r="Q9">
-        <v>85.09384528998444</v>
+        <v>36.50675755993</v>
       </c>
       <c r="R9">
-        <v>765.84460760986</v>
+        <v>219.04054535958</v>
       </c>
       <c r="S9">
-        <v>0.1299424677371044</v>
+        <v>0.05809545258649037</v>
       </c>
       <c r="T9">
-        <v>0.1543803527052929</v>
+        <v>0.04529483515455653</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.43916166666667</v>
+        <v>23.02053966666667</v>
       </c>
       <c r="H10">
-        <v>46.317485</v>
+        <v>69.06161900000001</v>
       </c>
       <c r="I10">
-        <v>0.2164291301970361</v>
+        <v>0.3606323253943132</v>
       </c>
       <c r="J10">
-        <v>0.2300964689104013</v>
+        <v>0.3742872051281717</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.895632</v>
+        <v>0.9764603333333333</v>
       </c>
       <c r="N10">
-        <v>5.791264</v>
+        <v>2.929381</v>
       </c>
       <c r="O10">
-        <v>0.3154309682118249</v>
+        <v>0.09919147117119548</v>
       </c>
       <c r="P10">
-        <v>0.2349956097062763</v>
+        <v>0.1117716869728403</v>
       </c>
       <c r="Q10">
-        <v>44.70613057517334</v>
+        <v>22.47864383642656</v>
       </c>
       <c r="R10">
-        <v>268.23678345104</v>
+        <v>202.307794527839</v>
       </c>
       <c r="S10">
-        <v>0.06826845008729422</v>
+        <v>0.03577165090775121</v>
       </c>
       <c r="T10">
-        <v>0.05407166000286098</v>
+        <v>0.04183471232952528</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.711689</v>
+        <v>23.02053966666667</v>
       </c>
       <c r="H11">
-        <v>25.423378</v>
+        <v>69.06161900000001</v>
       </c>
       <c r="I11">
-        <v>0.1781948950988098</v>
+        <v>0.3606323253943132</v>
       </c>
       <c r="J11">
-        <v>0.1262985135219319</v>
+        <v>0.3742872051281717</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7727323333333332</v>
+        <v>5.511558666666666</v>
       </c>
       <c r="N11">
-        <v>2.318197</v>
+        <v>16.534676</v>
       </c>
       <c r="O11">
-        <v>0.08417634149364144</v>
+        <v>0.5598789770873293</v>
       </c>
       <c r="P11">
-        <v>0.09406687683971243</v>
+        <v>0.6308870816289637</v>
       </c>
       <c r="Q11">
-        <v>9.822733101577665</v>
+        <v>126.8790549111604</v>
       </c>
       <c r="R11">
-        <v>58.93639860946599</v>
+        <v>1141.911494200444</v>
       </c>
       <c r="S11">
-        <v>0.01499979434226103</v>
+        <v>0.201910457446393</v>
       </c>
       <c r="T11">
-        <v>0.01188050671650633</v>
+        <v>0.2361329625343735</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.711689</v>
+        <v>23.02053966666667</v>
       </c>
       <c r="H12">
-        <v>25.423378</v>
+        <v>69.06161900000001</v>
       </c>
       <c r="I12">
-        <v>0.1781948950988098</v>
+        <v>0.3606323253943132</v>
       </c>
       <c r="J12">
-        <v>0.1262985135219319</v>
+        <v>0.3742872051281717</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>5.511558666666666</v>
+        <v>0.032202</v>
       </c>
       <c r="N12">
-        <v>16.534676</v>
+        <v>0.096606</v>
       </c>
       <c r="O12">
-        <v>0.6003926902945337</v>
+        <v>0.00327116590978248</v>
       </c>
       <c r="P12">
-        <v>0.6709375134540114</v>
+        <v>0.003686040017224872</v>
       </c>
       <c r="Q12">
-        <v>70.06121967592132</v>
+        <v>0.7413074183460001</v>
       </c>
       <c r="R12">
-        <v>420.3673180555279</v>
+        <v>6.671766765114</v>
       </c>
       <c r="S12">
-        <v>0.1069869124651266</v>
+        <v>0.00117968816879546</v>
       </c>
       <c r="T12">
-        <v>0.08473841061534283</v>
+        <v>0.001379637616037695</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.711689</v>
+        <v>23.02053966666667</v>
       </c>
       <c r="H13">
-        <v>25.423378</v>
+        <v>69.06161900000001</v>
       </c>
       <c r="I13">
-        <v>0.1781948950988098</v>
+        <v>0.3606323253943132</v>
       </c>
       <c r="J13">
-        <v>0.1262985135219319</v>
+        <v>0.3742872051281717</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.895632</v>
+        <v>3.3239755</v>
       </c>
       <c r="N13">
-        <v>5.791264</v>
+        <v>6.647951</v>
       </c>
       <c r="O13">
-        <v>0.3154309682118249</v>
+        <v>0.3376583858316928</v>
       </c>
       <c r="P13">
-        <v>0.2349956097062763</v>
+        <v>0.2536551913809712</v>
       </c>
       <c r="Q13">
-        <v>36.808373442448</v>
+        <v>76.51970984877818</v>
       </c>
       <c r="R13">
-        <v>147.233493769792</v>
+        <v>459.1182590926691</v>
       </c>
       <c r="S13">
-        <v>0.05620818829142215</v>
+        <v>0.1217705288713736</v>
       </c>
       <c r="T13">
-        <v>0.02967959619008277</v>
+        <v>0.09493989264823521</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.442302</v>
+        <v>6.986425000000001</v>
       </c>
       <c r="H14">
-        <v>52.326906</v>
+        <v>13.97285</v>
       </c>
       <c r="I14">
-        <v>0.2445095356857582</v>
+        <v>0.1094470733712295</v>
       </c>
       <c r="J14">
-        <v>0.2599501311352827</v>
+        <v>0.07572743080603386</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7727323333333332</v>
+        <v>0.9764603333333333</v>
       </c>
       <c r="N14">
-        <v>2.318197</v>
+        <v>2.929381</v>
       </c>
       <c r="O14">
-        <v>0.08417634149364144</v>
+        <v>0.09919147117119548</v>
       </c>
       <c r="P14">
-        <v>0.09406687683971243</v>
+        <v>0.1117716869728403</v>
       </c>
       <c r="Q14">
-        <v>13.47823072316467</v>
+        <v>6.821966884308333</v>
       </c>
       <c r="R14">
-        <v>121.304076508482</v>
+        <v>40.93180130585</v>
       </c>
       <c r="S14">
-        <v>0.02058191817433609</v>
+        <v>0.01085621622307402</v>
       </c>
       <c r="T14">
-        <v>0.02445269696996973</v>
+        <v>0.008464182691309441</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.442302</v>
+        <v>6.986425000000001</v>
       </c>
       <c r="H15">
-        <v>52.326906</v>
+        <v>13.97285</v>
       </c>
       <c r="I15">
-        <v>0.2445095356857582</v>
+        <v>0.1094470733712295</v>
       </c>
       <c r="J15">
-        <v>0.2599501311352827</v>
+        <v>0.07572743080603386</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,84 +1370,394 @@
         <v>16.534676</v>
       </c>
       <c r="O15">
-        <v>0.6003926902945337</v>
+        <v>0.5598789770873293</v>
       </c>
       <c r="P15">
-        <v>0.6709375134540114</v>
+        <v>0.6308870816289637</v>
       </c>
       <c r="Q15">
-        <v>96.13427075471732</v>
+        <v>38.50609125776666</v>
       </c>
       <c r="R15">
-        <v>865.2084367924559</v>
+        <v>231.0365475466</v>
       </c>
       <c r="S15">
-        <v>0.1468017379330397</v>
+        <v>0.06127711548428582</v>
       </c>
       <c r="T15">
-        <v>0.1744102946059508</v>
+        <v>0.04777545782047798</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.986425000000001</v>
+      </c>
+      <c r="H16">
+        <v>13.97285</v>
+      </c>
+      <c r="I16">
+        <v>0.1094470733712295</v>
+      </c>
+      <c r="J16">
+        <v>0.07572743080603386</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.032202</v>
+      </c>
+      <c r="N16">
+        <v>0.096606</v>
+      </c>
+      <c r="O16">
+        <v>0.00327116590978248</v>
+      </c>
+      <c r="P16">
+        <v>0.003686040017224872</v>
+      </c>
+      <c r="Q16">
+        <v>0.22497685785</v>
+      </c>
+      <c r="R16">
+        <v>1.3498611471</v>
+      </c>
+      <c r="S16">
+        <v>0.0003580195353374277</v>
+      </c>
+      <c r="T16">
+        <v>0.0002791343403526683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.986425000000001</v>
+      </c>
+      <c r="H17">
+        <v>13.97285</v>
+      </c>
+      <c r="I17">
+        <v>0.1094470733712295</v>
+      </c>
+      <c r="J17">
+        <v>0.07572743080603386</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.3239755</v>
+      </c>
+      <c r="N17">
+        <v>6.647951</v>
+      </c>
+      <c r="O17">
+        <v>0.3376583858316928</v>
+      </c>
+      <c r="P17">
+        <v>0.2536551913809712</v>
+      </c>
+      <c r="Q17">
+        <v>23.2227055325875</v>
+      </c>
+      <c r="R17">
+        <v>92.89082213035</v>
+      </c>
+      <c r="S17">
+        <v>0.03695572212853219</v>
+      </c>
+      <c r="T17">
+        <v>0.01920865595389377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>12.077449</v>
+      </c>
+      <c r="H18">
+        <v>36.232347</v>
+      </c>
+      <c r="I18">
+        <v>0.1892014079933989</v>
+      </c>
+      <c r="J18">
+        <v>0.196365276259511</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9764603333333333</v>
+      </c>
+      <c r="N18">
+        <v>2.929381</v>
+      </c>
+      <c r="O18">
+        <v>0.09919147117119548</v>
+      </c>
+      <c r="P18">
+        <v>0.1117716869728403</v>
+      </c>
+      <c r="Q18">
+        <v>11.79314987635633</v>
+      </c>
+      <c r="R18">
+        <v>106.138348887207</v>
+      </c>
+      <c r="S18">
+        <v>0.01876716600652682</v>
+      </c>
+      <c r="T18">
+        <v>0.02194807819041337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>12.077449</v>
+      </c>
+      <c r="H19">
+        <v>36.232347</v>
+      </c>
+      <c r="I19">
+        <v>0.1892014079933989</v>
+      </c>
+      <c r="J19">
+        <v>0.196365276259511</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.511558666666666</v>
+      </c>
+      <c r="N19">
+        <v>16.534676</v>
+      </c>
+      <c r="O19">
+        <v>0.5598789770873293</v>
+      </c>
+      <c r="P19">
+        <v>0.6308870816289637</v>
+      </c>
+      <c r="Q19">
+        <v>66.56556870717465</v>
+      </c>
+      <c r="R19">
+        <v>599.0901183645718</v>
+      </c>
+      <c r="S19">
+        <v>0.1059298907708266</v>
+      </c>
+      <c r="T19">
+        <v>0.1238843160726281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>12.077449</v>
+      </c>
+      <c r="H20">
+        <v>36.232347</v>
+      </c>
+      <c r="I20">
+        <v>0.1892014079933989</v>
+      </c>
+      <c r="J20">
+        <v>0.196365276259511</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.032202</v>
+      </c>
+      <c r="N20">
+        <v>0.096606</v>
+      </c>
+      <c r="O20">
+        <v>0.00327116590978248</v>
+      </c>
+      <c r="P20">
+        <v>0.003686040017224872</v>
+      </c>
+      <c r="Q20">
+        <v>0.388918012698</v>
+      </c>
+      <c r="R20">
+        <v>3.500262114282</v>
+      </c>
+      <c r="S20">
+        <v>0.0006189091959108528</v>
+      </c>
+      <c r="T20">
+        <v>0.0007238102662859746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>17.442302</v>
-      </c>
-      <c r="H16">
-        <v>52.326906</v>
-      </c>
-      <c r="I16">
-        <v>0.2445095356857582</v>
-      </c>
-      <c r="J16">
-        <v>0.2599501311352827</v>
-      </c>
-      <c r="K16">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>12.077449</v>
+      </c>
+      <c r="H21">
+        <v>36.232347</v>
+      </c>
+      <c r="I21">
+        <v>0.1892014079933989</v>
+      </c>
+      <c r="J21">
+        <v>0.196365276259511</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.895632</v>
-      </c>
-      <c r="N16">
-        <v>5.791264</v>
-      </c>
-      <c r="O16">
-        <v>0.3154309682118249</v>
-      </c>
-      <c r="P16">
-        <v>0.2349956097062763</v>
-      </c>
-      <c r="Q16">
-        <v>50.506487824864</v>
-      </c>
-      <c r="R16">
-        <v>303.038926949184</v>
-      </c>
-      <c r="S16">
-        <v>0.07712587957838248</v>
-      </c>
-      <c r="T16">
-        <v>0.06108713955936222</v>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.3239755</v>
+      </c>
+      <c r="N21">
+        <v>6.647951</v>
+      </c>
+      <c r="O21">
+        <v>0.3376583858316928</v>
+      </c>
+      <c r="P21">
+        <v>0.2536551913809712</v>
+      </c>
+      <c r="Q21">
+        <v>40.1451445784995</v>
+      </c>
+      <c r="R21">
+        <v>240.870867470997</v>
+      </c>
+      <c r="S21">
+        <v>0.0638854420201346</v>
+      </c>
+      <c r="T21">
+        <v>0.04980907173018354</v>
       </c>
     </row>
   </sheetData>
